--- a/Solution/PptGeneratorGUI/Templates/DataSource_Template.xlsx
+++ b/Solution/PptGeneratorGUI/Templates/DataSource_Template.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\Lefo\Dev\3 GDPptGenerator\Solution\PptGeneratorGUI\Configurazione\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\Lefo\Dev\3 GDPptGenerator\Solution\PptGeneratorGUI\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="16215" tabRatio="851" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="16215" tabRatio="851" activeTab="16"/>
   </bookViews>
   <sheets>
     <sheet name="Superdettagli" sheetId="1" r:id="rId1"/>
@@ -28,9 +28,12 @@
     <sheet name="PP_09" sheetId="14" r:id="rId14"/>
     <sheet name="PP_10" sheetId="15" r:id="rId15"/>
     <sheet name="PP_11" sheetId="16" r:id="rId16"/>
+    <sheet name="PP_12" sheetId="17" r:id="rId17"/>
   </sheets>
   <definedNames>
+    <definedName name="tblFieldFilters" localSheetId="16">Table9[]</definedName>
     <definedName name="tblFieldFilters">Table9[]</definedName>
+    <definedName name="tblIndexPowerpoint" localSheetId="16">Table8[]</definedName>
     <definedName name="tblIndexPowerpoint">Table8[]</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
@@ -54,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="240">
   <si>
     <t>da considerare?_</t>
   </si>
@@ -1087,7 +1090,7 @@
         <xdr:cNvPr id="2" name="Group 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{356DB1C8-B726-46E4-A37C-5DCDC3B56533}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{356DB1C8-B726-46E4-A37C-5DCDC3B56533}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1106,7 +1109,7 @@
           <xdr:cNvPr id="3" name="Rectangle 2">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD69F98F-C2DE-5B3D-AD9B-1385703EAAA4}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{DD69F98F-C2DE-5B3D-AD9B-1385703EAAA4}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1154,7 +1157,7 @@
           <xdr:cNvPr id="4" name="TextBox 3">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C8757078-1A93-B150-D490-CB5780B9E446}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C8757078-1A93-B150-D490-CB5780B9E446}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1202,7 +1205,7 @@
           <xdr:cNvPr id="5" name="TextBox 4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{17B2414E-36D9-F9DA-F440-862ABDE6A5AB}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{17B2414E-36D9-F9DA-F440-862ABDE6A5AB}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1266,7 +1269,7 @@
         <xdr:cNvPr id="6" name="Straight Connector 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E3FA2292-5CF5-4E38-A2EA-A37A8220D345}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E3FA2292-5CF5-4E38-A2EA-A37A8220D345}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1324,7 +1327,7 @@
         <xdr:cNvPr id="7" name="Group 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A662FB5B-1B8C-482D-BB22-DD7634AD884E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A662FB5B-1B8C-482D-BB22-DD7634AD884E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1343,7 +1346,7 @@
           <xdr:cNvPr id="8" name="Rectangle 7">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{743BEFAD-47AE-F721-807C-ADED1AA08EF3}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{743BEFAD-47AE-F721-807C-ADED1AA08EF3}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1391,7 +1394,7 @@
           <xdr:cNvPr id="9" name="Straight Connector 8">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{23D0CA46-A1A1-244F-C51D-72BDB41B6C93}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{23D0CA46-A1A1-244F-C51D-72BDB41B6C93}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1434,7 +1437,7 @@
           <xdr:cNvPr id="10" name="TextBox 9">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C43F6D6B-ABEB-6881-ABD1-806AACA964EC}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C43F6D6B-ABEB-6881-ABD1-806AACA964EC}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1482,7 +1485,7 @@
           <xdr:cNvPr id="11" name="TextBox 10">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B98B25C0-EF27-4688-FA6A-E00624852F57}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B98B25C0-EF27-4688-FA6A-E00624852F57}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -6394,6 +6397,520 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P30"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.7109375" customWidth="1"/>
+    <col min="2" max="2" width="25.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="17" t="s">
+        <v>223</v>
+      </c>
+      <c r="B1" s="17"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="7"/>
+      <c r="P1" s="8"/>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="C2" s="9"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="10"/>
+      <c r="N2" s="10"/>
+      <c r="O2" s="10"/>
+      <c r="P2" s="11"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" s="4"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
+      <c r="M3" s="10"/>
+      <c r="N3" s="10"/>
+      <c r="O3" s="10"/>
+      <c r="P3" s="11"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C4" s="9"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="10"/>
+      <c r="N4" s="10"/>
+      <c r="O4" s="10"/>
+      <c r="P4" s="11"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C5" s="9"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="10"/>
+      <c r="L5" s="10"/>
+      <c r="M5" s="10"/>
+      <c r="N5" s="10"/>
+      <c r="O5" s="10"/>
+      <c r="P5" s="11"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C6" s="9"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="10"/>
+      <c r="N6" s="10"/>
+      <c r="O6" s="10"/>
+      <c r="P6" s="11"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C7" s="9"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="10"/>
+      <c r="L7" s="10"/>
+      <c r="M7" s="10"/>
+      <c r="N7" s="10"/>
+      <c r="O7" s="10"/>
+      <c r="P7" s="11"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C8" s="9"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="10"/>
+      <c r="M8" s="10"/>
+      <c r="N8" s="10"/>
+      <c r="O8" s="10"/>
+      <c r="P8" s="11"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C9" s="9"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="10"/>
+      <c r="L9" s="10"/>
+      <c r="M9" s="10"/>
+      <c r="N9" s="10"/>
+      <c r="O9" s="10"/>
+      <c r="P9" s="11"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C10" s="9"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="10"/>
+      <c r="L10" s="10"/>
+      <c r="M10" s="10"/>
+      <c r="N10" s="10"/>
+      <c r="O10" s="10"/>
+      <c r="P10" s="11"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C11" s="9"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="10"/>
+      <c r="L11" s="10"/>
+      <c r="M11" s="10"/>
+      <c r="N11" s="10"/>
+      <c r="O11" s="10"/>
+      <c r="P11" s="11"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C12" s="9"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="10"/>
+      <c r="L12" s="10"/>
+      <c r="M12" s="10"/>
+      <c r="N12" s="10"/>
+      <c r="O12" s="10"/>
+      <c r="P12" s="11"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C13" s="9"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="10"/>
+      <c r="K13" s="10"/>
+      <c r="L13" s="10"/>
+      <c r="M13" s="10"/>
+      <c r="N13" s="10"/>
+      <c r="O13" s="10"/>
+      <c r="P13" s="11"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C14" s="9"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="10"/>
+      <c r="K14" s="10"/>
+      <c r="L14" s="10"/>
+      <c r="M14" s="10"/>
+      <c r="N14" s="10"/>
+      <c r="O14" s="10"/>
+      <c r="P14" s="11"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C15" s="9"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="10"/>
+      <c r="K15" s="10"/>
+      <c r="L15" s="10"/>
+      <c r="M15" s="10"/>
+      <c r="N15" s="10"/>
+      <c r="O15" s="10"/>
+      <c r="P15" s="11"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C16" s="9"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="10"/>
+      <c r="K16" s="10"/>
+      <c r="L16" s="10"/>
+      <c r="M16" s="10"/>
+      <c r="N16" s="10"/>
+      <c r="O16" s="10"/>
+      <c r="P16" s="11"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C17" s="9"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="10"/>
+      <c r="K17" s="10"/>
+      <c r="L17" s="10"/>
+      <c r="M17" s="10"/>
+      <c r="N17" s="10"/>
+      <c r="O17" s="10"/>
+      <c r="P17" s="11"/>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C18" s="9"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="10"/>
+      <c r="K18" s="10"/>
+      <c r="L18" s="10"/>
+      <c r="M18" s="10"/>
+      <c r="N18" s="10"/>
+      <c r="O18" s="10"/>
+      <c r="P18" s="11"/>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C19" s="9"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="10"/>
+      <c r="J19" s="10"/>
+      <c r="K19" s="10"/>
+      <c r="L19" s="10"/>
+      <c r="M19" s="10"/>
+      <c r="N19" s="10"/>
+      <c r="O19" s="10"/>
+      <c r="P19" s="11"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C20" s="9"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="10"/>
+      <c r="J20" s="10"/>
+      <c r="K20" s="10"/>
+      <c r="L20" s="10"/>
+      <c r="M20" s="10"/>
+      <c r="N20" s="10"/>
+      <c r="O20" s="10"/>
+      <c r="P20" s="11"/>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C21" s="9"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="10"/>
+      <c r="J21" s="10"/>
+      <c r="K21" s="10"/>
+      <c r="L21" s="10"/>
+      <c r="M21" s="10"/>
+      <c r="N21" s="10"/>
+      <c r="O21" s="10"/>
+      <c r="P21" s="11"/>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C22" s="9"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="10"/>
+      <c r="I22" s="10"/>
+      <c r="J22" s="10"/>
+      <c r="K22" s="10"/>
+      <c r="L22" s="10"/>
+      <c r="M22" s="10"/>
+      <c r="N22" s="10"/>
+      <c r="O22" s="10"/>
+      <c r="P22" s="11"/>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C23" s="9"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="10"/>
+      <c r="I23" s="10"/>
+      <c r="J23" s="10"/>
+      <c r="K23" s="10"/>
+      <c r="L23" s="10"/>
+      <c r="M23" s="10"/>
+      <c r="N23" s="10"/>
+      <c r="O23" s="10"/>
+      <c r="P23" s="11"/>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C24" s="9"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="10"/>
+      <c r="I24" s="10"/>
+      <c r="J24" s="10"/>
+      <c r="K24" s="10"/>
+      <c r="L24" s="10"/>
+      <c r="M24" s="10"/>
+      <c r="N24" s="10"/>
+      <c r="O24" s="10"/>
+      <c r="P24" s="11"/>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C25" s="9"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="10"/>
+      <c r="I25" s="10"/>
+      <c r="J25" s="10"/>
+      <c r="K25" s="10"/>
+      <c r="L25" s="10"/>
+      <c r="M25" s="10"/>
+      <c r="N25" s="10"/>
+      <c r="O25" s="10"/>
+      <c r="P25" s="11"/>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C26" s="9"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="10"/>
+      <c r="H26" s="10"/>
+      <c r="I26" s="10"/>
+      <c r="J26" s="10"/>
+      <c r="K26" s="10"/>
+      <c r="L26" s="10"/>
+      <c r="M26" s="10"/>
+      <c r="N26" s="10"/>
+      <c r="O26" s="10"/>
+      <c r="P26" s="11"/>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C27" s="9"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="10"/>
+      <c r="G27" s="10"/>
+      <c r="H27" s="10"/>
+      <c r="I27" s="10"/>
+      <c r="J27" s="10"/>
+      <c r="K27" s="10"/>
+      <c r="L27" s="10"/>
+      <c r="M27" s="10"/>
+      <c r="N27" s="10"/>
+      <c r="O27" s="10"/>
+      <c r="P27" s="11"/>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C28" s="9"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="10"/>
+      <c r="G28" s="10"/>
+      <c r="H28" s="10"/>
+      <c r="I28" s="10"/>
+      <c r="J28" s="10"/>
+      <c r="K28" s="10"/>
+      <c r="L28" s="10"/>
+      <c r="M28" s="10"/>
+      <c r="N28" s="10"/>
+      <c r="O28" s="10"/>
+      <c r="P28" s="11"/>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C29" s="9"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="10"/>
+      <c r="G29" s="10"/>
+      <c r="H29" s="10"/>
+      <c r="I29" s="10"/>
+      <c r="J29" s="10"/>
+      <c r="K29" s="10"/>
+      <c r="L29" s="10"/>
+      <c r="M29" s="10"/>
+      <c r="N29" s="10"/>
+      <c r="O29" s="10"/>
+      <c r="P29" s="11"/>
+    </row>
+    <row r="30" spans="3:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C30" s="12"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="13"/>
+      <c r="F30" s="13"/>
+      <c r="G30" s="13"/>
+      <c r="H30" s="13"/>
+      <c r="I30" s="13"/>
+      <c r="J30" s="13"/>
+      <c r="K30" s="13"/>
+      <c r="L30" s="13"/>
+      <c r="M30" s="13"/>
+      <c r="N30" s="13"/>
+      <c r="O30" s="13"/>
+      <c r="P30" s="14"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
@@ -6892,7 +7409,7 @@
   <dimension ref="A1:Z93"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7817,7 +8334,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>

--- a/Solution/PptGeneratorGUI/Templates/DataSource_Template.xlsx
+++ b/Solution/PptGeneratorGUI/Templates/DataSource_Template.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="16215" tabRatio="851" activeTab="16"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="16215" tabRatio="851" firstSheet="4" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Superdettagli" sheetId="1" r:id="rId1"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="238">
   <si>
     <t>da considerare?_</t>
   </si>
@@ -687,12 +687,6 @@
   </si>
   <si>
     <t>PP_12</t>
-  </si>
-  <si>
-    <t>PP_13</t>
-  </si>
-  <si>
-    <t>PP_14</t>
   </si>
   <si>
     <t>Engineering KPI_Sales.pptx</t>
@@ -875,7 +869,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -1000,11 +994,33 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="7"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="7"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="7"/>
+      </right>
+      <top style="thin">
+        <color theme="7"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1026,6 +1042,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2814,10 +2832,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
-        <v>223</v>
-      </c>
-      <c r="B1" s="17"/>
+      <c r="A1" s="19" t="s">
+        <v>221</v>
+      </c>
+      <c r="B1" s="19"/>
       <c r="C1" s="6"/>
       <c r="D1" s="7"/>
       <c r="E1" s="7"/>
@@ -2835,10 +2853,10 @@
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>222</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>224</v>
       </c>
       <c r="C2" s="9"/>
       <c r="D2" s="10"/>
@@ -3328,10 +3346,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
-        <v>223</v>
-      </c>
-      <c r="B1" s="17"/>
+      <c r="A1" s="19" t="s">
+        <v>221</v>
+      </c>
+      <c r="B1" s="19"/>
       <c r="C1" s="6"/>
       <c r="D1" s="7"/>
       <c r="E1" s="7"/>
@@ -3349,10 +3367,10 @@
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>222</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>224</v>
       </c>
       <c r="C2" s="9"/>
       <c r="D2" s="10"/>
@@ -3842,10 +3860,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
-        <v>223</v>
-      </c>
-      <c r="B1" s="17"/>
+      <c r="A1" s="19" t="s">
+        <v>221</v>
+      </c>
+      <c r="B1" s="19"/>
       <c r="C1" s="6"/>
       <c r="D1" s="7"/>
       <c r="E1" s="7"/>
@@ -3863,10 +3881,10 @@
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>222</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>224</v>
       </c>
       <c r="C2" s="9"/>
       <c r="D2" s="10"/>
@@ -4356,10 +4374,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
-        <v>223</v>
-      </c>
-      <c r="B1" s="17"/>
+      <c r="A1" s="19" t="s">
+        <v>221</v>
+      </c>
+      <c r="B1" s="19"/>
       <c r="C1" s="6"/>
       <c r="D1" s="7"/>
       <c r="E1" s="7"/>
@@ -4377,10 +4395,10 @@
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>222</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>224</v>
       </c>
       <c r="C2" s="9"/>
       <c r="D2" s="10"/>
@@ -4870,10 +4888,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
-        <v>223</v>
-      </c>
-      <c r="B1" s="17"/>
+      <c r="A1" s="19" t="s">
+        <v>221</v>
+      </c>
+      <c r="B1" s="19"/>
       <c r="C1" s="6"/>
       <c r="D1" s="7"/>
       <c r="E1" s="7"/>
@@ -4891,10 +4909,10 @@
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>222</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>224</v>
       </c>
       <c r="C2" s="9"/>
       <c r="D2" s="10"/>
@@ -5384,10 +5402,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
-        <v>223</v>
-      </c>
-      <c r="B1" s="17"/>
+      <c r="A1" s="19" t="s">
+        <v>221</v>
+      </c>
+      <c r="B1" s="19"/>
       <c r="C1" s="6"/>
       <c r="D1" s="7"/>
       <c r="E1" s="7"/>
@@ -5405,10 +5423,10 @@
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>222</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>224</v>
       </c>
       <c r="C2" s="9"/>
       <c r="D2" s="10"/>
@@ -5898,10 +5916,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
-        <v>223</v>
-      </c>
-      <c r="B1" s="17"/>
+      <c r="A1" s="19" t="s">
+        <v>221</v>
+      </c>
+      <c r="B1" s="19"/>
       <c r="C1" s="6"/>
       <c r="D1" s="7"/>
       <c r="E1" s="7"/>
@@ -5919,10 +5937,10 @@
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>222</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>224</v>
       </c>
       <c r="C2" s="9"/>
       <c r="D2" s="10"/>
@@ -6401,7 +6419,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
@@ -6412,10 +6430,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
-        <v>223</v>
-      </c>
-      <c r="B1" s="17"/>
+      <c r="A1" s="19" t="s">
+        <v>221</v>
+      </c>
+      <c r="B1" s="19"/>
       <c r="C1" s="6"/>
       <c r="D1" s="7"/>
       <c r="E1" s="7"/>
@@ -6433,10 +6451,10 @@
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>222</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>224</v>
       </c>
       <c r="C2" s="9"/>
       <c r="D2" s="10"/>
@@ -7408,8 +7426,8 @@
   </sheetPr>
   <dimension ref="A1:Z93"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7426,39 +7444,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
-        <v>213</v>
-      </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
+      <c r="A1" s="17" t="s">
+        <v>211</v>
+      </c>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
-      <c r="K1" s="16" t="s">
-        <v>216</v>
-      </c>
-      <c r="L1" s="16"/>
+      <c r="K1" s="18" t="s">
+        <v>214</v>
+      </c>
+      <c r="L1" s="18"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="15"/>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
+      <c r="A2" s="17"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
-      <c r="K2" s="16"/>
-      <c r="L2" s="16"/>
+      <c r="K2" s="18"/>
+      <c r="L2" s="18"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>190</v>
       </c>
       <c r="B3" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C3" t="s">
         <v>191</v>
@@ -7475,10 +7493,10 @@
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
       <c r="K3" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="L3" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -7486,7 +7504,7 @@
         <v>195</v>
       </c>
       <c r="B4" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>196</v>
@@ -7501,13 +7519,13 @@
         <v>199</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="I4" s="3"/>
-      <c r="K4" t="s">
-        <v>219</v>
-      </c>
-      <c r="L4" t="s">
+      <c r="K4" s="15" t="s">
+        <v>217</v>
+      </c>
+      <c r="L4" s="16" t="s">
         <v>7</v>
       </c>
     </row>
@@ -7516,7 +7534,7 @@
         <v>195</v>
       </c>
       <c r="B5" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>197</v>
@@ -7525,10 +7543,10 @@
       <c r="E5" s="1"/>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
-      <c r="K5" t="s">
-        <v>219</v>
-      </c>
-      <c r="L5" t="s">
+      <c r="K5" s="15" t="s">
+        <v>217</v>
+      </c>
+      <c r="L5" s="16" t="s">
         <v>8</v>
       </c>
     </row>
@@ -7537,7 +7555,7 @@
         <v>195</v>
       </c>
       <c r="B6" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>200</v>
@@ -7546,10 +7564,10 @@
       <c r="E6" s="1"/>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
-      <c r="K6" t="s">
-        <v>220</v>
-      </c>
-      <c r="L6" t="s">
+      <c r="K6" s="15" t="s">
+        <v>218</v>
+      </c>
+      <c r="L6" s="16" t="s">
         <v>156</v>
       </c>
     </row>
@@ -7558,7 +7576,7 @@
         <v>195</v>
       </c>
       <c r="B7" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>201</v>
@@ -7567,10 +7585,10 @@
       <c r="E7" s="1"/>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
-      <c r="K7" t="s">
-        <v>220</v>
-      </c>
-      <c r="L7" t="s">
+      <c r="K7" s="15" t="s">
+        <v>218</v>
+      </c>
+      <c r="L7" s="16" t="s">
         <v>157</v>
       </c>
     </row>
@@ -7579,7 +7597,7 @@
         <v>195</v>
       </c>
       <c r="B8" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>202</v>
@@ -7588,11 +7606,11 @@
       <c r="E8" s="1"/>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
-      <c r="K8" t="s">
-        <v>219</v>
-      </c>
-      <c r="L8" t="s">
-        <v>128</v>
+      <c r="K8" s="15" t="s">
+        <v>217</v>
+      </c>
+      <c r="L8" s="16" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
@@ -7600,7 +7618,7 @@
         <v>195</v>
       </c>
       <c r="B9" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>198</v>
@@ -7614,10 +7632,10 @@
       </c>
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
-      <c r="K9" t="s">
-        <v>219</v>
-      </c>
-      <c r="L9" t="s">
+      <c r="K9" s="15" t="s">
+        <v>217</v>
+      </c>
+      <c r="L9" s="16" t="s">
         <v>4</v>
       </c>
     </row>
@@ -7626,7 +7644,7 @@
         <v>195</v>
       </c>
       <c r="B10" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>203</v>
@@ -7634,13 +7652,13 @@
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="H10" s="3" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="I10" s="3"/>
-      <c r="K10" t="s">
-        <v>221</v>
-      </c>
-      <c r="L10" t="s">
+      <c r="K10" s="15" t="s">
+        <v>219</v>
+      </c>
+      <c r="L10" s="16" t="s">
         <v>24</v>
       </c>
     </row>
@@ -7649,7 +7667,7 @@
         <v>195</v>
       </c>
       <c r="B11" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>204</v>
@@ -7658,11 +7676,11 @@
       <c r="E11" s="1"/>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
-      <c r="K11" t="s">
-        <v>221</v>
-      </c>
-      <c r="L11" t="s">
-        <v>158</v>
+      <c r="K11" s="15" t="s">
+        <v>219</v>
+      </c>
+      <c r="L11" s="16" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
@@ -7670,7 +7688,7 @@
         <v>195</v>
       </c>
       <c r="B12" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>207</v>
@@ -7687,7 +7705,7 @@
         <v>195</v>
       </c>
       <c r="B13" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>205</v>
@@ -7704,7 +7722,7 @@
         <v>195</v>
       </c>
       <c r="B14" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>208</v>
@@ -7721,7 +7739,7 @@
         <v>195</v>
       </c>
       <c r="B15" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>209</v>
@@ -7738,10 +7756,10 @@
         <v>195</v>
       </c>
       <c r="B16" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
@@ -7755,10 +7773,10 @@
         <v>195</v>
       </c>
       <c r="B17" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>201</v>
@@ -7776,10 +7794,10 @@
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B18" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>196</v>
@@ -7793,13 +7811,13 @@
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B19" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
@@ -7810,13 +7828,13 @@
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B20" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
@@ -7827,10 +7845,10 @@
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B21" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>201</v>
@@ -7844,10 +7862,10 @@
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B22" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>202</v>
@@ -7859,10 +7877,10 @@
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B23" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>208</v>
@@ -7874,10 +7892,10 @@
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B24" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>203</v>
@@ -8345,10 +8363,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
-        <v>223</v>
-      </c>
-      <c r="B1" s="17"/>
+      <c r="A1" s="19" t="s">
+        <v>221</v>
+      </c>
+      <c r="B1" s="19"/>
       <c r="C1" s="6"/>
       <c r="D1" s="7"/>
       <c r="E1" s="7"/>
@@ -8367,10 +8385,10 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>222</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>224</v>
       </c>
       <c r="C2" s="9"/>
       <c r="D2" s="10"/>
@@ -8906,10 +8924,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
-        <v>223</v>
-      </c>
-      <c r="B1" s="17"/>
+      <c r="A1" s="19" t="s">
+        <v>221</v>
+      </c>
+      <c r="B1" s="19"/>
       <c r="C1" s="6"/>
       <c r="D1" s="7"/>
       <c r="E1" s="7"/>
@@ -8927,10 +8945,10 @@
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>222</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>224</v>
       </c>
       <c r="C2" s="9"/>
       <c r="D2" s="10"/>
@@ -9420,10 +9438,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
-        <v>223</v>
-      </c>
-      <c r="B1" s="17"/>
+      <c r="A1" s="19" t="s">
+        <v>221</v>
+      </c>
+      <c r="B1" s="19"/>
       <c r="C1" s="6"/>
       <c r="D1" s="7"/>
       <c r="E1" s="7"/>
@@ -9441,10 +9459,10 @@
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>222</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>224</v>
       </c>
       <c r="C2" s="9"/>
       <c r="D2" s="10"/>
@@ -9934,10 +9952,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
-        <v>223</v>
-      </c>
-      <c r="B1" s="17"/>
+      <c r="A1" s="19" t="s">
+        <v>221</v>
+      </c>
+      <c r="B1" s="19"/>
       <c r="C1" s="6"/>
       <c r="D1" s="7"/>
       <c r="E1" s="7"/>
@@ -9955,10 +9973,10 @@
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>222</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>224</v>
       </c>
       <c r="C2" s="9"/>
       <c r="D2" s="10"/>
